--- a/src/helper/utility/test-Data/ExcelReviewData.xlsx
+++ b/src/helper/utility/test-Data/ExcelReviewData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>title</t>
   </si>
@@ -32,15 +32,6 @@
   </si>
   <si>
     <t>Product review is successfully added.</t>
-  </si>
-  <si>
-    <t>Review title is required.</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Review text is required.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +390,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -429,23 +420,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
